--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed4/result_data_KNN.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.198</v>
+        <v>8.357000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.822000000000001</v>
+        <v>-7.961</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.578</v>
+        <v>-8.120999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.802</v>
+        <v>-21.723</v>
       </c>
       <c r="B9" t="n">
-        <v>5.468</v>
+        <v>5.554</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.238</v>
+        <v>-11.319</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,13 +586,13 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.114</v>
+        <v>5.909000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.65</v>
+        <v>-7.562</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.132000000000001</v>
+        <v>-8.024000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.034</v>
+        <v>-21.632</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.812</v>
+        <v>-20.338</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.25</v>
+        <v>7.542</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.969999999999999</v>
+        <v>6.359</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.824</v>
+        <v>6.308999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.49</v>
+        <v>-21.886</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.326</v>
+        <v>-13.145</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.716</v>
+        <v>-12.248</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.622</v>
+        <v>-7.450999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.872</v>
+        <v>-12.079</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.612</v>
+        <v>7.129</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.72</v>
+        <v>-21.689</v>
       </c>
       <c r="B35" t="n">
-        <v>5.242000000000001</v>
+        <v>5.577</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.954</v>
+        <v>-12.266</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,10 +967,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.3</v>
+        <v>-12.209</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.481999999999999</v>
+        <v>-7.975</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.838000000000001</v>
+        <v>-7.696</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.296</v>
+        <v>-12.375</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.336</v>
+        <v>-7.441</v>
       </c>
     </row>
     <row r="44">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.534</v>
+        <v>-13.297</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.474000000000001</v>
+        <v>-7.515000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.836</v>
+        <v>6.329000000000001</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.576000000000001</v>
+        <v>6.317</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.3</v>
+        <v>-11.356</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>7.028</v>
+        <v>5.766</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.706</v>
+        <v>-13.843</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.176</v>
+        <v>-11.016</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>6.52</v>
+        <v>5.652</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>6.24</v>
+        <v>5.718999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.598</v>
+        <v>-21.408</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1488,12 +1488,12 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.494</v>
+        <v>-7.447</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.476</v>
+        <v>-20.564</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.358</v>
+        <v>-20.996</v>
       </c>
       <c r="B78" t="n">
-        <v>6.614</v>
+        <v>6.561</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>7.425999999999999</v>
+        <v>7.122</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.21</v>
+        <v>-21.408</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.492</v>
+        <v>-11.8</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.968</v>
+        <v>-21.852</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.473999999999999</v>
+        <v>-7.669999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1726,18 +1726,18 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.08</v>
+        <v>-7.003</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.204</v>
+        <v>-21.377</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.916</v>
+        <v>-11.25</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.524000000000001</v>
+        <v>-7.358</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.211</v>
       </c>
     </row>
     <row r="97">
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.087999999999999</v>
+        <v>5.645</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.25</v>
+        <v>-12.788</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>7.828</v>
+        <v>7.550999999999999</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,10 +1905,10 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.314</v>
+        <v>-12.39</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.428</v>
+        <v>-7.495</v>
       </c>
     </row>
   </sheetData>
